--- a/Excel/staypar/stay/tutorial.xlsx
+++ b/Excel/staypar/stay/tutorial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>COLUMNA</t>
   </si>
@@ -146,6 +146,9 @@
     <t>Change Styles!</t>
   </si>
   <si>
+    <t>Alterar Estilo de Luta!</t>
+  </si>
+  <si>
     <t>Teach the Thief a Lesson!</t>
   </si>
   <si>
@@ -221,6 +224,9 @@
     <t>%u more time(s)</t>
   </si>
   <si>
+    <t>mais %u vez(es).</t>
+  </si>
+  <si>
     <t>DISP_ENEMY_GAUGE</t>
   </si>
   <si>
@@ -263,6 +269,9 @@
     <t>Besides the Dragon of Dojima style, Kiryu is proficient\nin three other styles, each with unique characteristics.\n\n&lt;Sign:43&gt; Brawler: A balanced offense and defense.\n&lt;Sign:31&gt; Rush: Focus on fast hits and quick evasion.\n&lt;Sign:32&gt; Beast: Go wild with destructive strength.\n\nSwitch styles with &lt;Sign:31&gt;, &lt;Sign:43&gt;, and &lt;Sign:32&gt;.</t>
   </si>
   <si>
+    <t>Além do estilo Dragão de Dojima, Kiryu é proficiente\nem outros três estilos, cada um com características únicas.\n\n&lt;Sign:43&gt; Delinquente: Ataque e defesa bem equilibrados.\n&lt;Sign:31&gt; Pugilista: Foca em acertos rápidos e esquiva rápida.\n&lt;Sign:32&gt; Besta: Se torna um selvagem com uma força destrutiva.\n\nMude de estilo usando &lt;Sign:31&gt;, &lt;Sign:43&gt;, e &lt;Sign:32&gt;.</t>
+  </si>
+  <si>
     <t>This training session is now complete.\n\nDish out some street justice to the man who stole the ring.</t>
   </si>
   <si>
@@ -342,6 +351,9 @@
   </si>
   <si>
     <t>Change styles with &lt;Sign:31&gt; &lt;Sign:43&gt; &lt;Sign:32&gt;</t>
+  </si>
+  <si>
+    <t>Mude de estilo usando &lt;Sign:31&gt; &lt;Sign:43&gt; &lt;Sign:32&gt;</t>
   </si>
   <si>
     <t>Press &lt;Sign:1&gt; near an enemy with a gun.</t>
@@ -987,7 +999,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -998,10 +1010,10 @@
         <v>12</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1012,10 +1024,10 @@
         <v>13</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -1026,10 +1038,10 @@
         <v>14</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1040,10 +1052,10 @@
         <v>15</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1054,10 +1066,10 @@
         <v>16</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1068,10 +1080,10 @@
         <v>17</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1082,10 +1094,10 @@
         <v>18</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1096,10 +1108,10 @@
         <v>19</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1110,10 +1122,10 @@
         <v>20</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1124,10 +1136,10 @@
         <v>21</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1138,10 +1150,10 @@
         <v>22</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1152,10 +1164,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1166,10 +1178,10 @@
         <v>24</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1188,77 +1200,77 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" s="0">
         <v>0</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" s="0">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="0">
         <v>2</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="0">
         <v>3</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="0">
         <v>4</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="0">
         <v>5</v>
@@ -1272,63 +1284,63 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" s="0">
         <v>6</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" s="0">
         <v>7</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" s="0">
         <v>8</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" s="0">
         <v>9</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" s="0">
         <v>10</v>
@@ -1342,21 +1354,21 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="0">
         <v>11</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="0">
         <v>12</v>
@@ -1370,35 +1382,35 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" s="0">
         <v>13</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" s="0">
         <v>14</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" s="0">
         <v>15</v>
@@ -1412,7 +1424,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" s="0">
         <v>16</v>
@@ -1426,7 +1438,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" s="0">
         <v>17</v>
@@ -1440,21 +1452,21 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" s="0">
         <v>18</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="0">
         <v>19</v>
@@ -1468,7 +1480,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" s="0">
         <v>20</v>
@@ -1482,21 +1494,21 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" s="0">
         <v>21</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" s="0">
         <v>22</v>
@@ -1510,7 +1522,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" s="0">
         <v>23</v>
@@ -1524,21 +1536,21 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="0">
         <v>24</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" s="0">
         <v>25</v>
@@ -1552,7 +1564,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B80" s="0">
         <v>0</v>
@@ -1566,35 +1578,35 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="0">
         <v>1</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B82" s="0">
         <v>0</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B83" s="0">
         <v>1</v>
@@ -1608,35 +1620,35 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B84" s="0">
         <v>0</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B85" s="0">
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B86" s="0">
         <v>2</v>
@@ -1650,707 +1662,707 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B87" s="0">
         <v>0</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B88" s="0">
         <v>1</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B89" s="0">
         <v>2</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B90" s="0">
         <v>3</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B91" s="0">
         <v>4</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B92" s="0">
         <v>5</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B93" s="0">
         <v>6</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B94" s="0">
         <v>7</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B95" s="0">
         <v>8</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B96" s="0">
         <v>9</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B97" s="0">
         <v>10</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B98" s="0">
         <v>11</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B99" s="0">
         <v>12</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B100" s="0">
         <v>13</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B101" s="0">
         <v>14</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B102" s="0">
         <v>15</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B103" s="0">
         <v>16</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B104" s="0">
         <v>17</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B105" s="0">
         <v>18</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B106" s="0">
         <v>19</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B107" s="0">
         <v>20</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B108" s="0">
         <v>21</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B109" s="0">
         <v>22</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B110" s="0">
         <v>23</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B111" s="0">
         <v>24</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B112" s="0">
         <v>25</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B113" s="0">
         <v>0</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B114" s="0">
         <v>1</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B115" s="0">
         <v>2</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B116" s="0">
         <v>3</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B117" s="0">
         <v>4</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B118" s="0">
         <v>5</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B119" s="0">
         <v>6</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B120" s="0">
         <v>7</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B121" s="0">
         <v>8</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B122" s="0">
         <v>9</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B123" s="0">
         <v>10</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B124" s="0">
         <v>11</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B125" s="0">
         <v>12</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B126" s="0">
         <v>13</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B127" s="0">
         <v>14</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B128" s="0">
         <v>15</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B129" s="0">
         <v>16</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B130" s="0">
         <v>17</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B131" s="0">
         <v>18</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B132" s="0">
         <v>19</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B133" s="0">
         <v>20</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B134" s="0">
         <v>21</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B135" s="0">
         <v>22</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B136" s="0">
         <v>23</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B137" s="0">
         <v>24</v>
@@ -2364,86 +2376,86 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B138" s="0">
         <v>0</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B139" s="0">
         <v>1</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B140" s="0">
         <v>2</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B141" s="0">
         <v>0</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B142" s="0">
         <v>1</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B143" s="0">
         <v>2</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
